--- a/DSweek16/地铁准备.xlsx
+++ b/DSweek16/地铁准备.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E4644-7DF1-4624-96AC-83FF4400B8E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007051B-3EB4-461C-B135-F6FFD6E28748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="500">
   <si>
     <t>全局编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,13 +232,6 @@
     <t>林和西</t>
   </si>
   <si>
-    <t>3二期</t>
-  </si>
-  <si>
-    <t>3二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄村</t>
   </si>
   <si>
@@ -606,13 +599,6 @@
   </si>
   <si>
     <t>镇龙</t>
-  </si>
-  <si>
-    <t>14二期</t>
-  </si>
-  <si>
-    <t>14二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天河公园</t>
@@ -755,6 +741,803 @@
   </si>
   <si>
     <t>新城东</t>
+  </si>
+  <si>
+    <t>xilang</t>
+  </si>
+  <si>
+    <t>kangkou</t>
+  </si>
+  <si>
+    <t>huadiwan</t>
+  </si>
+  <si>
+    <t>fangcun</t>
+  </si>
+  <si>
+    <t>huangsha</t>
+  </si>
+  <si>
+    <t>changshoulu</t>
+  </si>
+  <si>
+    <t>chenjiasi</t>
+  </si>
+  <si>
+    <t>ximenkou</t>
+  </si>
+  <si>
+    <t>gongyuanqian</t>
+  </si>
+  <si>
+    <t>nongjiangsuo</t>
+  </si>
+  <si>
+    <t>lieshilingyuan</t>
+  </si>
+  <si>
+    <t>dongshankou</t>
+  </si>
+  <si>
+    <t>yangji</t>
+  </si>
+  <si>
+    <t>tiyuxilu</t>
+  </si>
+  <si>
+    <t>tiyuzhongxin</t>
+  </si>
+  <si>
+    <t>guangzhoudongzhan</t>
+  </si>
+  <si>
+    <t>guangzhounanzhan</t>
+  </si>
+  <si>
+    <t>shibi</t>
+  </si>
+  <si>
+    <t>huijiang</t>
+  </si>
+  <si>
+    <t>nanpu</t>
+  </si>
+  <si>
+    <t>luoxi</t>
+  </si>
+  <si>
+    <t>nanzhou</t>
+  </si>
+  <si>
+    <t>dongxiaonan</t>
+  </si>
+  <si>
+    <t>jiangtailu</t>
+  </si>
+  <si>
+    <t>changgang</t>
+  </si>
+  <si>
+    <t>jiangnanxi</t>
+  </si>
+  <si>
+    <t>shiergong</t>
+  </si>
+  <si>
+    <t>haizhuguangchang</t>
+  </si>
+  <si>
+    <t>jiniantang</t>
+  </si>
+  <si>
+    <t>yuexiugongyuan</t>
+  </si>
+  <si>
+    <t>guangzhouhuochezhan</t>
+  </si>
+  <si>
+    <t>sanyuanli</t>
+  </si>
+  <si>
+    <t>feixianggongyuan</t>
+  </si>
+  <si>
+    <t>baiyungongyuan</t>
+  </si>
+  <si>
+    <t>baiyunwenhuaguangchang</t>
+  </si>
+  <si>
+    <t>xiaogang</t>
+  </si>
+  <si>
+    <t>jiangxia</t>
+  </si>
+  <si>
+    <t>huangbian</t>
+  </si>
+  <si>
+    <t>jiahewanggang</t>
+  </si>
+  <si>
+    <t>fanyuguangchang</t>
+  </si>
+  <si>
+    <t>shiqiao</t>
+  </si>
+  <si>
+    <t>hanxichanglong</t>
+  </si>
+  <si>
+    <t>dashi</t>
+  </si>
+  <si>
+    <t>xiajiao</t>
+  </si>
+  <si>
+    <t>lijiao</t>
+  </si>
+  <si>
+    <t>datang</t>
+  </si>
+  <si>
+    <t>kecun</t>
+  </si>
+  <si>
+    <t>guangzhouta</t>
+  </si>
+  <si>
+    <t>zhujiangxincheng</t>
+  </si>
+  <si>
+    <t>shipaiqiao</t>
+  </si>
+  <si>
+    <t>gangding</t>
+  </si>
+  <si>
+    <t>huashi</t>
+  </si>
+  <si>
+    <t>wushan</t>
+  </si>
+  <si>
+    <t>tianhekeyunzhan</t>
+  </si>
+  <si>
+    <t>jichangbei(2haohangzhanlou)</t>
+  </si>
+  <si>
+    <t>jichangnan(1haohangzhanlou)</t>
+  </si>
+  <si>
+    <t>gaozeng</t>
+  </si>
+  <si>
+    <t>renhe</t>
+  </si>
+  <si>
+    <t>longgui</t>
+  </si>
+  <si>
+    <t>baiyundadaobei</t>
+  </si>
+  <si>
+    <t>yongtai</t>
+  </si>
+  <si>
+    <t>tonghe</t>
+  </si>
+  <si>
+    <t>jingxinanfangyiyuan</t>
+  </si>
+  <si>
+    <t>meihuayuan</t>
+  </si>
+  <si>
+    <t>yantang</t>
+  </si>
+  <si>
+    <t>linhexi</t>
+  </si>
+  <si>
+    <t>huangcun</t>
+  </si>
+  <si>
+    <t>chebei</t>
+  </si>
+  <si>
+    <t>chebeinan</t>
+  </si>
+  <si>
+    <t>wanshengwei</t>
+  </si>
+  <si>
+    <t>guanzhou</t>
+  </si>
+  <si>
+    <t>daxuechengbei</t>
+  </si>
+  <si>
+    <t>daxuechengnan</t>
+  </si>
+  <si>
+    <t>xinzao</t>
+  </si>
+  <si>
+    <t>shiqi</t>
+  </si>
+  <si>
+    <t>haibang</t>
+  </si>
+  <si>
+    <t>diyong</t>
+  </si>
+  <si>
+    <t>dongyong</t>
+  </si>
+  <si>
+    <t>qingsheng</t>
+  </si>
+  <si>
+    <t>huanggeqichecheng</t>
+  </si>
+  <si>
+    <t>huangge</t>
+  </si>
+  <si>
+    <t>jiaomen</t>
+  </si>
+  <si>
+    <t>jinzhou</t>
+  </si>
+  <si>
+    <t>feishajiao</t>
+  </si>
+  <si>
+    <t>guanglong</t>
+  </si>
+  <si>
+    <t>dayong</t>
+  </si>
+  <si>
+    <t>tangkang</t>
+  </si>
+  <si>
+    <t>nanheng</t>
+  </si>
+  <si>
+    <t>nanshakeyungang</t>
+  </si>
+  <si>
+    <t>jiaokou</t>
+  </si>
+  <si>
+    <t>tanwei</t>
+  </si>
+  <si>
+    <t>zhongshanba</t>
+  </si>
+  <si>
+    <t>xichang</t>
+  </si>
+  <si>
+    <t>xicun</t>
+  </si>
+  <si>
+    <t>xiaobei</t>
+  </si>
+  <si>
+    <t>taojin</t>
+  </si>
+  <si>
+    <t>quzhuang</t>
+  </si>
+  <si>
+    <t>dongwuyuan</t>
+  </si>
+  <si>
+    <t>wuyang邨</t>
+  </si>
+  <si>
+    <t>liede</t>
+  </si>
+  <si>
+    <t>tancun</t>
+  </si>
+  <si>
+    <t>yuancun</t>
+  </si>
+  <si>
+    <t>keyunlu</t>
+  </si>
+  <si>
+    <t>dongpu</t>
+  </si>
+  <si>
+    <t>sanxi</t>
+  </si>
+  <si>
+    <t>yuzhu</t>
+  </si>
+  <si>
+    <t>dashadi</t>
+  </si>
+  <si>
+    <t>dashadong</t>
+  </si>
+  <si>
+    <t>wenchong</t>
+  </si>
+  <si>
+    <t>xiangxue</t>
+  </si>
+  <si>
+    <t>luogang</t>
+  </si>
+  <si>
+    <t>suyuan</t>
+  </si>
+  <si>
+    <t>xiangang</t>
+  </si>
+  <si>
+    <t>jinfeng</t>
+  </si>
+  <si>
+    <t>huangbei</t>
+  </si>
+  <si>
+    <t>gaotangshi</t>
+  </si>
+  <si>
+    <t>kemulang</t>
+  </si>
+  <si>
+    <t>longdong</t>
+  </si>
+  <si>
+    <t>zhiwuyuan</t>
+  </si>
+  <si>
+    <t>changban</t>
+  </si>
+  <si>
+    <t>tianpingjia</t>
+  </si>
+  <si>
+    <t>shaheding</t>
+  </si>
+  <si>
+    <t>huanghuagang</t>
+  </si>
+  <si>
+    <t>donghu</t>
+  </si>
+  <si>
+    <t>tuanyidaguangchang</t>
+  </si>
+  <si>
+    <t>beijinglu</t>
+  </si>
+  <si>
+    <t>yidelu</t>
+  </si>
+  <si>
+    <t>wenhuagongyuan</t>
+  </si>
+  <si>
+    <t>ruyifang</t>
+  </si>
+  <si>
+    <t>hesha</t>
+  </si>
+  <si>
+    <t>shabei</t>
+  </si>
+  <si>
+    <t>hengsha</t>
+  </si>
+  <si>
+    <t>xunfenggang</t>
+  </si>
+  <si>
+    <t>banqiao</t>
+  </si>
+  <si>
+    <t>yuangang</t>
+  </si>
+  <si>
+    <t>nancunwanbo</t>
+  </si>
+  <si>
+    <t>zhongcun</t>
+  </si>
+  <si>
+    <t>xiecun</t>
+  </si>
+  <si>
+    <t>fenghuangxincun</t>
+  </si>
+  <si>
+    <t>shayuan</t>
+  </si>
+  <si>
+    <t>baogangdadao</t>
+  </si>
+  <si>
+    <t>zhongda</t>
+  </si>
+  <si>
+    <t>lujiang</t>
+  </si>
+  <si>
+    <t>chigang</t>
+  </si>
+  <si>
+    <t>modiesha</t>
+  </si>
+  <si>
+    <t>xingangdong</t>
+  </si>
+  <si>
+    <t>pazhou</t>
+  </si>
+  <si>
+    <t>qingtang</t>
+  </si>
+  <si>
+    <t>qingbu</t>
+  </si>
+  <si>
+    <t>liantang</t>
+  </si>
+  <si>
+    <t>maanshangongyuan</t>
+  </si>
+  <si>
+    <t>huaduguangchang</t>
+  </si>
+  <si>
+    <t>huaguoshangongyuan</t>
+  </si>
+  <si>
+    <t>huachenglu</t>
+  </si>
+  <si>
+    <t>guangzhoubeizhan</t>
+  </si>
+  <si>
+    <t>huaduqichecheng</t>
+  </si>
+  <si>
+    <t>feieling</t>
+  </si>
+  <si>
+    <t>yufengwei</t>
+  </si>
+  <si>
+    <t>shuanggang</t>
+  </si>
+  <si>
+    <t>nanhaishenmiao</t>
+  </si>
+  <si>
+    <t>xiayuan</t>
+  </si>
+  <si>
+    <t>nangang</t>
+  </si>
+  <si>
+    <t>shacun</t>
+  </si>
+  <si>
+    <t>baijiang</t>
+  </si>
+  <si>
+    <t>xintang</t>
+  </si>
+  <si>
+    <t>guanhu</t>
+  </si>
+  <si>
+    <t>xinsha</t>
+  </si>
+  <si>
+    <t>baiyundongping</t>
+  </si>
+  <si>
+    <t>xialiang</t>
+  </si>
+  <si>
+    <t>taihe</t>
+  </si>
+  <si>
+    <t>zhuliao</t>
+  </si>
+  <si>
+    <t>zhongluotan</t>
+  </si>
+  <si>
+    <t>mali</t>
+  </si>
+  <si>
+    <t>xinhe</t>
+  </si>
+  <si>
+    <t>taiping</t>
+  </si>
+  <si>
+    <t>shengang</t>
+  </si>
+  <si>
+    <t>chicao</t>
+  </si>
+  <si>
+    <t>conghuakeyunzhan</t>
+  </si>
+  <si>
+    <t>dongfeng</t>
+  </si>
+  <si>
+    <t>hongwei</t>
+  </si>
+  <si>
+    <t>xinnan</t>
+  </si>
+  <si>
+    <t>fengxia</t>
+  </si>
+  <si>
+    <t>zhishicheng</t>
+  </si>
+  <si>
+    <t>hetangxia</t>
+  </si>
+  <si>
+    <t>wangcun</t>
+  </si>
+  <si>
+    <t>tangcun</t>
+  </si>
+  <si>
+    <t>zhenlongbei</t>
+  </si>
+  <si>
+    <t>zhenlong</t>
+  </si>
+  <si>
+    <t>tianhegongyuan</t>
+  </si>
+  <si>
+    <t>tangdong</t>
+  </si>
+  <si>
+    <t>daguandonglu</t>
+  </si>
+  <si>
+    <t>tianhezhihuicheng</t>
+  </si>
+  <si>
+    <t>shenzhoulu</t>
+  </si>
+  <si>
+    <t>kexuecheng</t>
+  </si>
+  <si>
+    <t>shuixi</t>
+  </si>
+  <si>
+    <t>changping</t>
+  </si>
+  <si>
+    <t>jinkang</t>
+  </si>
+  <si>
+    <t>zhenlongxi</t>
+  </si>
+  <si>
+    <t>zhongxin</t>
+  </si>
+  <si>
+    <t>kangbei</t>
+  </si>
+  <si>
+    <t>fenggang</t>
+  </si>
+  <si>
+    <t>zhucun</t>
+  </si>
+  <si>
+    <t>shantian</t>
+  </si>
+  <si>
+    <t>zhonggang</t>
+  </si>
+  <si>
+    <t>zengchengguangchang</t>
+  </si>
+  <si>
+    <t>haixinsha</t>
+  </si>
+  <si>
+    <t>dajuyuan</t>
+  </si>
+  <si>
+    <t>huachengdadao</t>
+  </si>
+  <si>
+    <t>fuerzhongxin</t>
+  </si>
+  <si>
+    <t>huangpudadao</t>
+  </si>
+  <si>
+    <t>tianhenan</t>
+  </si>
+  <si>
+    <t>tiyuzhongxinnan</t>
+  </si>
+  <si>
+    <t>shixi</t>
+  </si>
+  <si>
+    <t>yangang</t>
+  </si>
+  <si>
+    <t>shayong</t>
+  </si>
+  <si>
+    <t>hedong</t>
+  </si>
+  <si>
+    <t>jushu</t>
+  </si>
+  <si>
+    <t>longxi</t>
+  </si>
+  <si>
+    <t>jinronggaoxinqu</t>
+  </si>
+  <si>
+    <t>qiandenghu</t>
+  </si>
+  <si>
+    <t>leigang</t>
+  </si>
+  <si>
+    <t>nanguilu</t>
+  </si>
+  <si>
+    <t>guicheng</t>
+  </si>
+  <si>
+    <t>chaoan</t>
+  </si>
+  <si>
+    <t>pujunbeilu</t>
+  </si>
+  <si>
+    <t>zumiao</t>
+  </si>
+  <si>
+    <t>tongjilu</t>
+  </si>
+  <si>
+    <t>jihuayuan</t>
+  </si>
+  <si>
+    <t>kuiqilu</t>
+  </si>
+  <si>
+    <t>lanshi</t>
+  </si>
+  <si>
+    <t>shijilian</t>
+  </si>
+  <si>
+    <t>dongping</t>
+  </si>
+  <si>
+    <t>xinchengdong</t>
+  </si>
+  <si>
+    <t>21号线</t>
+  </si>
+  <si>
+    <t>21号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号线二期</t>
+  </si>
+  <si>
+    <t>14号线二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号线</t>
+  </si>
+  <si>
+    <t>14号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号线</t>
+  </si>
+  <si>
+    <t>13号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号线</t>
+  </si>
+  <si>
+    <t>9号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号线</t>
+  </si>
+  <si>
+    <t>8号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号线</t>
+  </si>
+  <si>
+    <t>7号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号线</t>
+  </si>
+  <si>
+    <t>6号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号线</t>
+  </si>
+  <si>
+    <t>5号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号线</t>
+  </si>
+  <si>
+    <t>4号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号线二期</t>
+  </si>
+  <si>
+    <t>3号线二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号线</t>
+  </si>
+  <si>
+    <t>3号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号线</t>
+  </si>
+  <si>
+    <t>2号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号线</t>
+  </si>
+  <si>
+    <t>1号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1082,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D271" sqref="A2:D271"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1881,7 @@
     <col min="6" max="6" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1119,11 +1902,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1133,11 +1919,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1147,11 +1936,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1161,11 +1953,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1175,11 +1970,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1189,11 +1987,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1203,11 +2004,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1217,11 +2021,14 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1231,11 +2038,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1245,11 +2055,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1259,11 +2072,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1273,11 +2089,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1287,11 +2106,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1301,11 +2123,14 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1315,11 +2140,14 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1329,11 +2157,14 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>498</v>
+      </c>
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1343,11 +2174,14 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1357,11 +2191,14 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1371,11 +2208,14 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+      <c r="E20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1385,11 +2225,14 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1399,11 +2242,14 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1413,11 +2259,14 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1427,11 +2276,14 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1441,11 +2293,14 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1455,11 +2310,14 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1469,11 +2327,14 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>496</v>
+      </c>
+      <c r="E27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1483,11 +2344,14 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>496</v>
+      </c>
+      <c r="E28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1497,11 +2361,14 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>496</v>
+      </c>
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1511,11 +2378,14 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>496</v>
+      </c>
+      <c r="E30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1525,11 +2395,14 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>496</v>
+      </c>
+      <c r="E31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1539,11 +2412,14 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>496</v>
+      </c>
+      <c r="E32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1553,11 +2429,14 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1567,11 +2446,14 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>496</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1581,11 +2463,14 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>496</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1595,11 +2480,14 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>496</v>
+      </c>
+      <c r="E36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1609,11 +2497,14 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>496</v>
+      </c>
+      <c r="E37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1623,11 +2514,14 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>496</v>
+      </c>
+      <c r="E38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1637,11 +2531,14 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1651,11 +2548,14 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>496</v>
+      </c>
+      <c r="E40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1665,11 +2565,14 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1679,11 +2582,14 @@
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1693,11 +2599,14 @@
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>495</v>
+      </c>
+      <c r="E43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1707,11 +2616,14 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1721,11 +2633,14 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>494</v>
+      </c>
+      <c r="E45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1735,11 +2650,14 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>494</v>
+      </c>
+      <c r="E46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1749,11 +2667,14 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>494</v>
+      </c>
+      <c r="E47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1763,11 +2684,14 @@
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1777,11 +2701,14 @@
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1791,11 +2718,14 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1805,11 +2735,14 @@
       <c r="C51">
         <v>3</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>494</v>
+      </c>
+      <c r="E51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1819,11 +2752,14 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>494</v>
+      </c>
+      <c r="E52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1833,11 +2769,14 @@
       <c r="C53">
         <v>3</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1847,11 +2786,14 @@
       <c r="C54">
         <v>3</v>
       </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1861,11 +2803,14 @@
       <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>494</v>
+      </c>
+      <c r="E55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1875,11 +2820,14 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>494</v>
+      </c>
+      <c r="E56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1889,11 +2837,14 @@
       <c r="C57">
         <v>3</v>
       </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>494</v>
+      </c>
+      <c r="E57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1904,10 +2855,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1918,10 +2872,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1932,10 +2889,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1946,10 +2906,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1960,10 +2923,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1974,10 +2940,13 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1988,10 +2957,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2002,10 +2974,13 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2016,10 +2991,13 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2030,10 +3008,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2044,10 +3025,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2058,10 +3042,13 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2072,10 +3059,13 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2086,10 +3076,13 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2100,402 +3093,489 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="E72" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>491</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>491</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>490</v>
+      </c>
+      <c r="E76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>490</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>490</v>
+      </c>
+      <c r="E78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>490</v>
+      </c>
+      <c r="E79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>490</v>
+      </c>
+      <c r="E80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>490</v>
+      </c>
+      <c r="E81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>490</v>
+      </c>
+      <c r="E82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>490</v>
+      </c>
+      <c r="E84" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>5</v>
       </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>490</v>
+      </c>
+      <c r="E85" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>490</v>
+      </c>
+      <c r="E86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>490</v>
+      </c>
+      <c r="E87" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <v>5</v>
       </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>490</v>
+      </c>
+      <c r="E88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>490</v>
+      </c>
+      <c r="E89" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90">
         <v>5</v>
       </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>490</v>
+      </c>
+      <c r="E90" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>490</v>
+      </c>
+      <c r="E91" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92">
         <v>5</v>
       </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>490</v>
+      </c>
+      <c r="E92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C93">
         <v>5</v>
       </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>490</v>
+      </c>
+      <c r="E94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>490</v>
+      </c>
+      <c r="E95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>489</v>
+      </c>
+      <c r="E96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>489</v>
+      </c>
+      <c r="E97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>488</v>
+      </c>
+      <c r="E98" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>488</v>
+      </c>
+      <c r="E99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>488</v>
+      </c>
+      <c r="E100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2505,67 +3585,82 @@
       <c r="C101">
         <v>6</v>
       </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>488</v>
+      </c>
+      <c r="E101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>6</v>
       </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>488</v>
+      </c>
+      <c r="E102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>488</v>
+      </c>
+      <c r="E103" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C104">
         <v>6</v>
       </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>488</v>
+      </c>
+      <c r="E104" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C105">
         <v>6</v>
       </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>488</v>
+      </c>
+      <c r="E105" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2575,25 +3670,31 @@
       <c r="C106">
         <v>6</v>
       </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2603,319 +3704,388 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>488</v>
+      </c>
+      <c r="E108" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>6</v>
       </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>488</v>
+      </c>
+      <c r="E109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C110">
         <v>6</v>
       </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>488</v>
+      </c>
+      <c r="E110" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C111">
         <v>6</v>
       </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>488</v>
+      </c>
+      <c r="E111" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C112">
         <v>6</v>
       </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>488</v>
+      </c>
+      <c r="E112" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C113">
         <v>6</v>
       </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>488</v>
+      </c>
+      <c r="E113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114">
         <v>6</v>
       </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>488</v>
+      </c>
+      <c r="E114" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C115">
         <v>6</v>
       </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>488</v>
+      </c>
+      <c r="E115" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>6</v>
       </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>488</v>
+      </c>
+      <c r="E116" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>488</v>
+      </c>
+      <c r="E117" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C118">
         <v>6</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>488</v>
+      </c>
+      <c r="E118" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C119">
         <v>6</v>
       </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>488</v>
+      </c>
+      <c r="E119" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C120">
         <v>7</v>
       </c>
-      <c r="D120">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>487</v>
+      </c>
+      <c r="E120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C121">
         <v>7</v>
       </c>
-      <c r="D121">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>487</v>
+      </c>
+      <c r="E121" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C122">
         <v>7</v>
       </c>
-      <c r="D122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C123">
         <v>7</v>
       </c>
-      <c r="D123">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C124">
         <v>7</v>
       </c>
-      <c r="D124">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>486</v>
+      </c>
+      <c r="E124" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C125">
         <v>7</v>
       </c>
-      <c r="D125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>486</v>
+      </c>
+      <c r="E125" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126">
         <v>7</v>
       </c>
-      <c r="D126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C127">
         <v>7</v>
       </c>
-      <c r="D127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>486</v>
+      </c>
+      <c r="E127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C128">
         <v>7</v>
       </c>
-      <c r="D128">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C129">
         <v>7</v>
       </c>
-      <c r="D129">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C130">
         <v>7</v>
       </c>
-      <c r="D130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2925,11 +4095,14 @@
       <c r="C131">
         <v>7</v>
       </c>
-      <c r="D131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>486</v>
+      </c>
+      <c r="E131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2939,67 +4112,82 @@
       <c r="C132">
         <v>7</v>
       </c>
-      <c r="D132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>486</v>
+      </c>
+      <c r="E132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C133">
         <v>7</v>
       </c>
-      <c r="D133">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>486</v>
+      </c>
+      <c r="E133" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C134">
         <v>7</v>
       </c>
-      <c r="D134">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>486</v>
+      </c>
+      <c r="E134" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C135">
         <v>7</v>
       </c>
-      <c r="D135">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>486</v>
+      </c>
+      <c r="E135" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C136">
         <v>7</v>
       </c>
-      <c r="D136">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>486</v>
+      </c>
+      <c r="E136" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3009,53 +4197,65 @@
       <c r="C137">
         <v>7</v>
       </c>
-      <c r="D137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>486</v>
+      </c>
+      <c r="E137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C138">
         <v>7</v>
       </c>
-      <c r="D138">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>486</v>
+      </c>
+      <c r="E138" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C139">
         <v>7</v>
       </c>
-      <c r="D139">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>486</v>
+      </c>
+      <c r="E139" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C140">
         <v>7</v>
       </c>
-      <c r="D140">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>486</v>
+      </c>
+      <c r="E140" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3065,39 +4265,48 @@
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>486</v>
+      </c>
+      <c r="E141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C142">
         <v>7</v>
       </c>
-      <c r="D142">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>486</v>
+      </c>
+      <c r="E142" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C143">
         <v>7</v>
       </c>
-      <c r="D143">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>486</v>
+      </c>
+      <c r="E143" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3107,151 +4316,184 @@
       <c r="C144">
         <v>7</v>
       </c>
-      <c r="D144">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>486</v>
+      </c>
+      <c r="E144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C145">
         <v>7</v>
       </c>
-      <c r="D145">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>486</v>
+      </c>
+      <c r="E145" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C146">
         <v>7</v>
       </c>
-      <c r="D146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>486</v>
+      </c>
+      <c r="E146" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C147">
         <v>7</v>
       </c>
-      <c r="D147">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>486</v>
+      </c>
+      <c r="E147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C148">
         <v>7</v>
       </c>
-      <c r="D148">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>486</v>
+      </c>
+      <c r="E148" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C149">
         <v>7</v>
       </c>
-      <c r="D149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>486</v>
+      </c>
+      <c r="E149" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C150">
         <v>7</v>
       </c>
-      <c r="D150">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>486</v>
+      </c>
+      <c r="E150" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C151">
         <v>8</v>
       </c>
-      <c r="D151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>485</v>
+      </c>
+      <c r="E151" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C152">
         <v>8</v>
       </c>
-      <c r="D152">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>485</v>
+      </c>
+      <c r="E152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C153">
         <v>8</v>
       </c>
-      <c r="D153">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>484</v>
+      </c>
+      <c r="E153" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C154">
         <v>8</v>
       </c>
-      <c r="D154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>484</v>
+      </c>
+      <c r="E154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3261,39 +4503,48 @@
       <c r="C155">
         <v>8</v>
       </c>
-      <c r="D155">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C156">
         <v>8</v>
       </c>
-      <c r="D156">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>484</v>
+      </c>
+      <c r="E156" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C157">
         <v>8</v>
       </c>
-      <c r="D157">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>484</v>
+      </c>
+      <c r="E157" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3303,11 +4554,14 @@
       <c r="C158">
         <v>8</v>
       </c>
-      <c r="D158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>484</v>
+      </c>
+      <c r="E158" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3317,53 +4571,65 @@
       <c r="C159">
         <v>8</v>
       </c>
-      <c r="D159">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>484</v>
+      </c>
+      <c r="E159" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C160">
         <v>9</v>
       </c>
-      <c r="D160">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>483</v>
+      </c>
+      <c r="E160" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C161">
         <v>9</v>
       </c>
-      <c r="D161">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>483</v>
+      </c>
+      <c r="E161" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C162">
         <v>9</v>
       </c>
-      <c r="D162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>482</v>
+      </c>
+      <c r="E162" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3373,53 +4639,65 @@
       <c r="C163">
         <v>9</v>
       </c>
-      <c r="D163">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>482</v>
+      </c>
+      <c r="E163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C164">
         <v>9</v>
       </c>
-      <c r="D164">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>482</v>
+      </c>
+      <c r="E164" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C165">
         <v>9</v>
       </c>
-      <c r="D165">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>482</v>
+      </c>
+      <c r="E165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C166">
         <v>9</v>
       </c>
-      <c r="D166">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>482</v>
+      </c>
+      <c r="E166" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3429,81 +4707,99 @@
       <c r="C167">
         <v>9</v>
       </c>
-      <c r="D167">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>482</v>
+      </c>
+      <c r="E167" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C168">
         <v>9</v>
       </c>
-      <c r="D168">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>482</v>
+      </c>
+      <c r="E168" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C169">
         <v>9</v>
       </c>
-      <c r="D169">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>482</v>
+      </c>
+      <c r="E169" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C170">
         <v>9</v>
       </c>
-      <c r="D170">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>482</v>
+      </c>
+      <c r="E170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C171">
         <v>9</v>
       </c>
-      <c r="D171">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>482</v>
+      </c>
+      <c r="E171" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C172">
         <v>9</v>
       </c>
-      <c r="D172">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>482</v>
+      </c>
+      <c r="E172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3513,305 +4809,371 @@
       <c r="C173">
         <v>10</v>
       </c>
-      <c r="D173">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>481</v>
+      </c>
+      <c r="E173" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C174">
         <v>10</v>
       </c>
-      <c r="D174">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>481</v>
+      </c>
+      <c r="E174" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C175">
         <v>10</v>
       </c>
-      <c r="D175">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>480</v>
+      </c>
+      <c r="E175" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C176">
         <v>10</v>
       </c>
-      <c r="D176">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>480</v>
+      </c>
+      <c r="E176" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177">
         <v>10</v>
       </c>
-      <c r="D177">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>480</v>
+      </c>
+      <c r="E177" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C178">
         <v>10</v>
       </c>
-      <c r="D178">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>480</v>
+      </c>
+      <c r="E178" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C179">
         <v>10</v>
       </c>
-      <c r="D179">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>480</v>
+      </c>
+      <c r="E179" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C180">
         <v>10</v>
       </c>
-      <c r="D180">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>480</v>
+      </c>
+      <c r="E180" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C181">
         <v>10</v>
       </c>
-      <c r="D181">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>480</v>
+      </c>
+      <c r="E181" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182">
         <v>10</v>
       </c>
-      <c r="D182">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>480</v>
+      </c>
+      <c r="E182" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C183">
         <v>10</v>
       </c>
-      <c r="D183">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>480</v>
+      </c>
+      <c r="E183" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C184">
         <v>11</v>
       </c>
-      <c r="D184">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>479</v>
+      </c>
+      <c r="E184" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C185">
         <v>11</v>
       </c>
-      <c r="D185">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>479</v>
+      </c>
+      <c r="E185" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C186">
         <v>11</v>
       </c>
-      <c r="D186">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>478</v>
+      </c>
+      <c r="E186" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C187">
         <v>11</v>
       </c>
-      <c r="D187">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>478</v>
+      </c>
+      <c r="E187" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C188">
         <v>11</v>
       </c>
-      <c r="D188">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>478</v>
+      </c>
+      <c r="E188" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C189">
         <v>11</v>
       </c>
-      <c r="D189">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>478</v>
+      </c>
+      <c r="E189" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C190">
         <v>11</v>
       </c>
-      <c r="D190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>478</v>
+      </c>
+      <c r="E190" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C191">
         <v>11</v>
       </c>
-      <c r="D191">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>478</v>
+      </c>
+      <c r="E191" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C192">
         <v>11</v>
       </c>
-      <c r="D192">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>478</v>
+      </c>
+      <c r="E192" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C193">
         <v>11</v>
       </c>
-      <c r="D193">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>478</v>
+      </c>
+      <c r="E193" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C194">
         <v>11</v>
       </c>
-      <c r="D194">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>478</v>
+      </c>
+      <c r="E194" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3821,599 +5183,728 @@
       <c r="C195">
         <v>12</v>
       </c>
-      <c r="D195">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>477</v>
+      </c>
+      <c r="E195" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C196">
         <v>12</v>
       </c>
-      <c r="D196">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>477</v>
+      </c>
+      <c r="E196" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C197">
         <v>12</v>
       </c>
-      <c r="D197">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>476</v>
+      </c>
+      <c r="E197" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C198">
         <v>12</v>
       </c>
-      <c r="D198">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>476</v>
+      </c>
+      <c r="E198" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C199">
         <v>12</v>
       </c>
-      <c r="D199">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>476</v>
+      </c>
+      <c r="E199" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C200">
         <v>12</v>
       </c>
-      <c r="D200">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>476</v>
+      </c>
+      <c r="E200" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C201">
         <v>12</v>
       </c>
-      <c r="D201">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>476</v>
+      </c>
+      <c r="E201" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C202">
         <v>12</v>
       </c>
-      <c r="D202">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>476</v>
+      </c>
+      <c r="E202" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C203">
         <v>12</v>
       </c>
-      <c r="D203">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>476</v>
+      </c>
+      <c r="E203" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C204">
         <v>12</v>
       </c>
-      <c r="D204">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>476</v>
+      </c>
+      <c r="E204" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C205">
         <v>12</v>
       </c>
-      <c r="D205">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>476</v>
+      </c>
+      <c r="E205" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C206">
         <v>12</v>
       </c>
-      <c r="D206">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>476</v>
+      </c>
+      <c r="E206" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C207">
         <v>12</v>
       </c>
-      <c r="D207">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>476</v>
+      </c>
+      <c r="E207" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C208">
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="E208" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C209">
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="E209" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C210">
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E210" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C211">
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C212">
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E212" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C213">
         <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E213" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C214">
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E214" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C215">
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E215" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C216">
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E216" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C217">
         <v>14</v>
       </c>
-      <c r="D217">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>473</v>
+      </c>
+      <c r="E217" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C218">
         <v>14</v>
       </c>
-      <c r="D218">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>473</v>
+      </c>
+      <c r="E218" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C219">
         <v>14</v>
       </c>
-      <c r="D219">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D219" t="s">
+        <v>472</v>
+      </c>
+      <c r="E219" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C220">
         <v>14</v>
       </c>
-      <c r="D220">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
+        <v>472</v>
+      </c>
+      <c r="E220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C221">
         <v>14</v>
       </c>
-      <c r="D221">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>472</v>
+      </c>
+      <c r="E221" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C222">
         <v>14</v>
       </c>
-      <c r="D222">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C223">
         <v>14</v>
       </c>
-      <c r="D223">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>472</v>
+      </c>
+      <c r="E223" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C224">
         <v>14</v>
       </c>
-      <c r="D224">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>472</v>
+      </c>
+      <c r="E224" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C225">
         <v>14</v>
       </c>
-      <c r="D225">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>472</v>
+      </c>
+      <c r="E225" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C226">
         <v>14</v>
       </c>
-      <c r="D226">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>472</v>
+      </c>
+      <c r="E226" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C227">
         <v>14</v>
       </c>
-      <c r="D227">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
+        <v>472</v>
+      </c>
+      <c r="E227" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C228">
         <v>14</v>
       </c>
-      <c r="D228">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>472</v>
+      </c>
+      <c r="E228" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C229">
         <v>14</v>
       </c>
-      <c r="D229">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>472</v>
+      </c>
+      <c r="E229" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C230">
         <v>14</v>
       </c>
-      <c r="D230">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D230" t="s">
+        <v>472</v>
+      </c>
+      <c r="E230" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C231">
         <v>14</v>
       </c>
-      <c r="D231">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>472</v>
+      </c>
+      <c r="E231" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C232">
         <v>14</v>
       </c>
-      <c r="D232">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
+        <v>472</v>
+      </c>
+      <c r="E232" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C233">
         <v>14</v>
       </c>
-      <c r="D233">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
+        <v>472</v>
+      </c>
+      <c r="E233" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C234">
         <v>14</v>
       </c>
-      <c r="D234">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D234" t="s">
+        <v>472</v>
+      </c>
+      <c r="E234" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C235">
         <v>14</v>
       </c>
-      <c r="D235">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D235" t="s">
+        <v>472</v>
+      </c>
+      <c r="E235" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C236">
         <v>14</v>
       </c>
-      <c r="D236">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D236" t="s">
+        <v>472</v>
+      </c>
+      <c r="E236" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C237">
         <v>14</v>
       </c>
-      <c r="D237">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
+        <v>472</v>
+      </c>
+      <c r="E237" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4424,108 +5915,132 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E238" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C239">
         <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E239" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C240">
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E240" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C241">
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E241" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C242">
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E242" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C243">
         <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E243" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C244">
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E244" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C245">
         <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E245" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4536,10 +6051,13 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="E246" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4550,10 +6068,13 @@
         <v>16</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E247" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4564,80 +6085,98 @@
         <v>16</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C249" s="1">
         <v>16</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E249" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C250" s="1">
         <v>16</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E250" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C251" s="1">
         <v>16</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E251" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C252" s="1">
         <v>16</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E252" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C253" s="1">
         <v>16</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E253" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4648,245 +6187,299 @@
         <v>16</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E254" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C255" s="1">
         <v>16</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E255" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C256" s="1">
         <v>16</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E256" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C257" s="1">
         <v>16</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E257" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C258" s="1">
         <v>16</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E258" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C259" s="1">
         <v>16</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E259" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C260" s="1">
         <v>16</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E260" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C261" s="1">
         <v>16</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E261" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C262" s="1">
         <v>16</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E262" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C263" s="1">
         <v>16</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E263" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C264" s="1">
         <v>16</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E264" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C265" s="1">
         <v>16</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E265" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C266" s="1">
         <v>16</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E266" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C267" s="1">
         <v>16</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E267" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C268" s="1">
         <v>16</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E268" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C269" s="1">
         <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E269" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C270" s="1">
         <v>16</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E270" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C271" s="1">
         <v>16</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="E271" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
